--- a/有好货页面/id_1908048/需求表格.xlsx
+++ b/有好货页面/id_1908048/需求表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moviv\Documents\GitHub\Front-end\有好货页面\id_1908048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E4CE4-4A0B-4D4D-B39D-CCA8B491A63E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FEBD9A-849C-449A-A662-7FD2A291BB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{280EFB05-5750-C240-B8E3-74A8CB818465}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>页面</t>
   </si>
@@ -477,7 +478,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -565,7 +566,7 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
